--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-28.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-28.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O62"/>
+  <dimension ref="A1:O116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,10 +431,10 @@
     <col width="12" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="34" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -830,12 +830,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -845,96 +845,96 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Trevon Brazile</t>
+          <t>Pablo Tamba</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, January 28th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Nijel Pack</t>
+          <t>Matas Vokietaitis</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, January 28th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -943,193 +943,193 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O8" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Meleek Thomas</t>
+          <t>Tramon Mark</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, January 28th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="I9" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O9" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Denzel Aberdeen</t>
+          <t>Nate Ament</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, January 28th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" t="n">
         <v>15</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2</v>
-      </c>
-      <c r="O10" t="n">
-        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Tyler Nickel</t>
+          <t>Jeremiah Wilkinson</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, January 28th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1150,17 +1150,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Aden Holloway</t>
+          <t>Trevon Brazile</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1169,28 +1169,28 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K12" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O12" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13">
@@ -1201,27 +1201,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Mark Mitchell</t>
+          <t>Nijel Pack</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1230,19 +1230,19 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="I13" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1272,17 +1272,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Taylor Bol Bowen</t>
+          <t>Meleek Thomas</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1291,28 +1291,28 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I14" t="n">
+        <v>16</v>
+      </c>
+      <c r="J14" t="n">
         <v>4</v>
       </c>
-      <c r="J14" t="n">
-        <v>10</v>
-      </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1333,17 +1333,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Kirill Elatontsev</t>
+          <t>Denzel Aberdeen</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1352,141 +1352,141 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O15" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Collin Chandler</t>
+          <t>Ja'Kobi Gillespie</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, January 28th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H16" t="n">
+        <v>7</v>
+      </c>
+      <c r="I16" t="n">
+        <v>10</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>3</v>
       </c>
-      <c r="I16" t="n">
-        <v>4</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Jalil Bethea</t>
+          <t>KeShawn Murphy</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, January 28th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1495,129 +1495,129 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Otega Oweh</t>
+          <t>Felix Okpara</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, January 28th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I18" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Jayden Stone</t>
+          <t>Jayden Epps</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, January 28th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O19" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -1628,27 +1628,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Nick Pringle</t>
+          <t>Tyler Nickel</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1657,28 +1657,28 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I20" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
         <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
         <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
@@ -1689,17 +1689,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Houston Mallette</t>
+          <t>Aden Holloway</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1721,14 +1721,14 @@
         <v>9</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
+        <v>2</v>
+      </c>
+      <c r="K21" t="n">
         <v>8</v>
       </c>
-      <c r="K21" t="n">
-        <v>2</v>
-      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
@@ -1750,27 +1750,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Jadon Jones</t>
+          <t>Mark Mitchell</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1779,28 +1779,28 @@
         </is>
       </c>
       <c r="H22" t="n">
+        <v>7</v>
+      </c>
+      <c r="I22" t="n">
+        <v>11</v>
+      </c>
+      <c r="J22" t="n">
+        <v>5</v>
+      </c>
+      <c r="K22" t="n">
         <v>4</v>
       </c>
-      <c r="I22" t="n">
-        <v>3</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1</v>
-      </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1821,12 +1821,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Anthony Robinson II</t>
+          <t>Taylor Bol Bowen</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1840,13 +1840,13 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
@@ -1872,22 +1872,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Darius Acuff Jr.</t>
+          <t>Kirill Elatontsev</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1901,19 +1901,19 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="I24" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
         <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -1933,17 +1933,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Malachi Moreno</t>
+          <t>Collin Chandler</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1962,28 +1962,28 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
         <v>4</v>
       </c>
       <c r="J25" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O25" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2004,17 +2004,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Xzayvier Brown</t>
+          <t>Jalil Bethea</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2023,16 +2023,16 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="I26" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -2041,59 +2041,59 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Jeff Nwankwo</t>
+          <t>Dedan Thomas Jr.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, January 28th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -2105,18 +2105,18 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2126,58 +2126,58 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mouhamed Dioubate</t>
+          <t>Keyshawn Hall</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, January 28th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J28" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
         <v>2</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2187,47 +2187,47 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Latrell Wrightsell</t>
+          <t>Quincy Ballard</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, January 28th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I29" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="J29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -2238,27 +2238,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mohamed Wague</t>
+          <t>Otega Oweh</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2267,28 +2267,28 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I30" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="J30" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O30" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
@@ -2299,7 +2299,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2309,17 +2309,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Tyler Tanner</t>
+          <t>Jayden Stone</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2328,28 +2328,28 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I31" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="J31" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O31" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
@@ -2360,27 +2360,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Aiden Sherrell</t>
+          <t>Nick Pringle</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2389,28 +2389,28 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I32" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
@@ -2421,27 +2421,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Tae Davis</t>
+          <t>Houston Mallette</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2450,28 +2450,28 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I33" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J33" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K33" t="n">
         <v>2</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34">
@@ -2482,27 +2482,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Jalen Washington</t>
+          <t>Jadon Jones</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2514,25 +2514,25 @@
         <v>4</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
         <v>9</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="n">
-        <v>1</v>
-      </c>
-      <c r="O34" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="35">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2553,17 +2553,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Karter Knox</t>
+          <t>Anthony Robinson II</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2572,13 +2572,13 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -2587,65 +2587,65 @@
         <v>1</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O35" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Charles Bediako</t>
+          <t>Marquel Sutton</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, January 28th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>20</v>
+        <v>-4</v>
       </c>
       <c r="I36" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -2654,18 +2654,18 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2675,32 +2675,32 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Malique Ewin</t>
+          <t>Jaylen Carey</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, January 28th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>15</v>
+        <v>-2</v>
       </c>
       <c r="I37" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K37" t="n">
         <v>1</v>
@@ -2715,7 +2715,7 @@
         <v>2</v>
       </c>
       <c r="O37" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -2726,27 +2726,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Darius Acuff Jr.</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2755,28 +2755,28 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I38" t="n">
+        <v>21</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3</v>
+      </c>
+      <c r="K38" t="n">
         <v>9</v>
       </c>
-      <c r="J38" t="n">
-        <v>4</v>
-      </c>
-      <c r="K38" t="n">
-        <v>1</v>
-      </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39">
@@ -2787,27 +2787,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Malachi Moreno</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2816,28 +2816,28 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I39" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J39" t="n">
         <v>8</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O39" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40">
@@ -2848,7 +2848,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2858,17 +2858,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Xzayvier Brown</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2877,28 +2877,28 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I40" t="n">
         <v>13</v>
       </c>
       <c r="J40" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O40" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2919,17 +2919,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Jeff Nwankwo</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2938,74 +2938,74 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I41" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Jayden Leverett</t>
+          <t>Mike Nwoko</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, January 28th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3014,85 +3014,85 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, January 28th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3102,58 +3102,58 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>London Jemison</t>
+          <t>Jordan Pope</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, January 28th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I44" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O44" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3163,38 +3163,38 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Trent Burns</t>
+          <t>Kevin Overton</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, January 28th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I45" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -3203,18 +3203,18 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3224,29 +3224,29 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>J.P. Estrella</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, January 28th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I46" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J46" t="n">
         <v>5</v>
@@ -3264,7 +3264,7 @@
         <v>1</v>
       </c>
       <c r="O46" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -3275,27 +3275,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Preston Murphy Jr.</t>
+          <t>Mouhamed Dioubate</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -3304,28 +3304,28 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I47" t="n">
         <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O47" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3346,17 +3346,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Latrell Wrightsell</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3365,19 +3365,19 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
@@ -3386,7 +3386,7 @@
         <v>1</v>
       </c>
       <c r="O48" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49">
@@ -3397,7 +3397,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3407,17 +3407,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Sebastian Mack</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3426,77 +3426,77 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="I49" t="n">
+        <v>9</v>
+      </c>
+      <c r="J49" t="n">
+        <v>12</v>
+      </c>
+      <c r="K49" t="n">
         <v>4</v>
       </c>
-      <c r="J49" t="n">
-        <v>2</v>
-      </c>
-      <c r="K49" t="n">
-        <v>1</v>
-      </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O49" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Jacob Martin</t>
+          <t>Dailyn Swain</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, January 28th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -3505,56 +3505,56 @@
         <v>1</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Luke Northweather</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, January 28th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
@@ -3569,18 +3569,18 @@
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3590,58 +3590,58 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, January 28th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J52" t="n">
         <v>2</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3651,47 +3651,47 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Tyler Harris</t>
+          <t>Josh Hubbard</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, January 28th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54">
@@ -3702,22 +3702,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Andrija Jelavic</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3731,28 +3731,28 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="J54" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O54" t="n">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55">
@@ -3763,27 +3763,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Coleson Messer</t>
+          <t>Aiden Sherrell</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3792,13 +3792,13 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
@@ -3807,13 +3807,13 @@
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56">
@@ -3824,22 +3824,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>D.J. Wagner</t>
+          <t>Tae Davis</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3853,16 +3853,16 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J56" t="n">
         <v>3</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -3871,10 +3871,10 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O56" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57">
@@ -3885,17 +3885,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Jaylon Dean-Vines</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3914,13 +3914,13 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
@@ -3929,13 +3929,13 @@
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O57" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58">
@@ -3946,7 +3946,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3956,17 +3956,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Miles Keeffe</t>
+          <t>Karter Knox</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3975,13 +3975,13 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
@@ -3990,24 +3990,24 @@
         <v>1</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -4017,58 +4017,58 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Nicholas Randall</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, January 28th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J59" t="n">
         <v>1</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -4078,29 +4078,29 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Noah Williamson</t>
+          <t>Elyjah Freeman</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, January 28th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -4115,21 +4115,21 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O60" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4139,35 +4139,35 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Jasper Johnson</t>
+          <t>Tahaad Pettiford</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, January 28th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I61" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -4176,71 +4176,3365 @@
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Tar</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Max Mackinnon</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>MSST@LSU</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Wed, January 28th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
           <t>2026-01-27</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>Undrafted</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Charles Bediako</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>20</v>
+      </c>
+      <c r="I63" t="n">
+        <v>14</v>
+      </c>
+      <c r="J63" t="n">
+        <v>6</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Malique Ewin</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>ARK@OU</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>15</v>
+      </c>
+      <c r="I64" t="n">
+        <v>12</v>
+      </c>
+      <c r="J64" t="n">
+        <v>4</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>2</v>
+      </c>
+      <c r="O64" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>AK Okereke</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>UK@VAN</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>13</v>
+      </c>
+      <c r="I65" t="n">
+        <v>9</v>
+      </c>
+      <c r="J65" t="n">
+        <v>4</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Shawn Phillips Jr.</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>13</v>
+      </c>
+      <c r="I66" t="n">
+        <v>10</v>
+      </c>
+      <c r="J66" t="n">
+        <v>8</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>2</v>
+      </c>
+      <c r="O66" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>T.O. Barrett</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>11</v>
+      </c>
+      <c r="I67" t="n">
+        <v>13</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2</v>
+      </c>
+      <c r="K67" t="n">
+        <v>4</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="n">
+        <v>3</v>
+      </c>
+      <c r="O67" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Chandler Bing</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>UK@VAN</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+      <c r="I68" t="n">
+        <v>11</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="n">
+        <v>1</v>
+      </c>
+      <c r="O68" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Jayden Leverett</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>UK@VAN</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+      <c r="I69" t="n">
+        <v>6</v>
+      </c>
+      <c r="J69" t="n">
+        <v>3</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Mike James</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>UK@VAN</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+      <c r="I70" t="n">
+        <v>5</v>
+      </c>
+      <c r="J70" t="n">
+        <v>3</v>
+      </c>
+      <c r="K70" t="n">
+        <v>2</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>London Jemison</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+      <c r="I71" t="n">
+        <v>6</v>
+      </c>
+      <c r="J71" t="n">
+        <v>3</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>1</v>
+      </c>
+      <c r="O71" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Trent Burns</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+      <c r="I72" t="n">
+        <v>4</v>
+      </c>
+      <c r="J72" t="n">
+        <v>3</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Trent Pierce</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+      <c r="I73" t="n">
+        <v>4</v>
+      </c>
+      <c r="J73" t="n">
+        <v>5</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>1</v>
+      </c>
+      <c r="O73" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Preston Murphy Jr.</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Brandon Garrison</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>UK@VAN</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>3</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>1</v>
+      </c>
+      <c r="O75" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Sebastian Mack</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+      <c r="I76" t="n">
+        <v>4</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Jacob Martin</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Luke Northweather</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Trent Noah</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>UK@VAN</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>3</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Tyler Harris</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>UK@VAN</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2</v>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Andrija Jelavic</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>UK@VAN</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>2</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Coleson Messer</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>UK@VAN</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>D.J. Wagner</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>ARK@OU</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>3</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>1</v>
+      </c>
+      <c r="O83" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Jaylon Dean-Vines</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>UK@VAN</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Miles Keeffe</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>UK@VAN</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Nicholas Randall</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Noah Williamson</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Jasper Johnson</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>UK@VAN</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>5</v>
+      </c>
+      <c r="J88" t="n">
+        <v>2</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>4</v>
+      </c>
+      <c r="O88" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>Annor Boateng</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>MIZ</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>MIZ@ALA</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>Final</t>
         </is>
       </c>
-      <c r="H62" t="n">
+      <c r="H89" t="n">
         <v>-4</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" t="n">
-        <v>1</v>
-      </c>
-      <c r="O62" t="n">
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>1</v>
+      </c>
+      <c r="O89" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Kanon Catchings</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>TENN@UGA</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Wed, January 28th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>16</v>
+      </c>
+      <c r="I90" t="n">
+        <v>14</v>
+      </c>
+      <c r="J90" t="n">
+        <v>3</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Camden Heide</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>TEX</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>TEX@AUB</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Wed, January 28th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>11</v>
+      </c>
+      <c r="I91" t="n">
+        <v>9</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Sergej Macura</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>MSST@LSU</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Wed, January 28th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+      <c r="I92" t="n">
+        <v>4</v>
+      </c>
+      <c r="J92" t="n">
+        <v>7</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Bishop Boswell</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>TENN@UGA</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Wed, January 28th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+      <c r="I93" t="n">
+        <v>2</v>
+      </c>
+      <c r="J93" t="n">
+        <v>5</v>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Achor Achor</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>MSST@LSU</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Wed, January 28th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+      <c r="I94" t="n">
+        <v>4</v>
+      </c>
+      <c r="J94" t="n">
+        <v>4</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>DeWayne Brown II</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>TENN@UGA</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Wed, January 28th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+      <c r="I95" t="n">
+        <v>4</v>
+      </c>
+      <c r="J95" t="n">
+        <v>3</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Ja'Borri McGhee</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>MSST@LSU</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Wed, January 28th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+      <c r="I96" t="n">
+        <v>3</v>
+      </c>
+      <c r="J96" t="n">
+        <v>2</v>
+      </c>
+      <c r="K96" t="n">
+        <v>4</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>King Grace</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>MSST@LSU</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Wed, January 28th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+      <c r="I97" t="n">
+        <v>6</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>1</v>
+      </c>
+      <c r="O97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Sebastian Williams-Adams</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>AUB</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>TEX@AUB</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Wed, January 28th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+      <c r="I98" t="n">
+        <v>5</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>2</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Justin Abson</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>TENN@UGA</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Wed, January 28th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Justin Bailey</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>TENN@UGA</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Wed, January 28th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+      <c r="I100" t="n">
+        <v>5</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Jamarion Davis-Fleming</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>MSST@LSU</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Wed, January 28th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>4</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Jordan Ross</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>TENN@UGA</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Wed, January 28th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+      <c r="I102" t="n">
+        <v>2</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Kareem Stagg</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>TENN@UGA</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Wed, January 28th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>3</v>
+      </c>
+      <c r="I103" t="n">
+        <v>2</v>
+      </c>
+      <c r="J103" t="n">
+        <v>3</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Lassina Traore</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>TEX</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>TEX@AUB</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Wed, January 28th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+      <c r="I104" t="n">
+        <v>2</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Dylan James</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>TENN@UGA</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Wed, January 28th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>2</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Robert Miller III</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>MSST@LSU</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Wed, January 28th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+      <c r="I106" t="n">
+        <v>2</v>
+      </c>
+      <c r="J106" t="n">
+        <v>3</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>2</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="n">
+        <v>1</v>
+      </c>
+      <c r="O106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Blake Muschalek</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>AUB</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>TEX@AUB</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Wed, January 28th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Chendall Weaver</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>TEX</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>TEX@AUB</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Wed, January 28th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>2</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>1</v>
+      </c>
+      <c r="O108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Filip Jović</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>AUB</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>TEX@AUB</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Wed, January 28th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>2</v>
+      </c>
+      <c r="J109" t="n">
+        <v>2</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Jalen Reece</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>MSST@LSU</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Wed, January 28th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Amaree Abram</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>TENN@UGA</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Wed, January 28th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Jake Wilkins</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>TENN@UGA</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Wed, January 28th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Mazi Mosley</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>MSST@LSU</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Wed, January 28th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Rashad King</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>MSST@LSU</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Wed, January 28th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>3</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+      <c r="O114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Simeon Wilcher</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>TEX</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>TEX@AUB</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Wed, January 28th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0</v>
+      </c>
+      <c r="O115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Amari Evans</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>TENN@UGA</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Wed, January 28th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -4304,10 +7598,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -4317,62 +7611,62 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-28.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-28.xlsx
@@ -434,7 +434,7 @@
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -860,7 +860,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>15:08 - 2nd Half</t>
+          <t>3:32 - 2nd Half</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -885,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -921,14 +921,14 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>13:40 - 2nd Half</t>
+          <t>1:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J8" t="n">
         <v>6</v>
@@ -946,7 +946,7 @@
         <v>2</v>
       </c>
       <c r="O8" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -982,7 +982,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>19:04 - 2nd Half</t>
+          <t>7:57 - 2nd Half</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1007,7 +1007,7 @@
         <v>4</v>
       </c>
       <c r="O9" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
@@ -1043,11 +1043,11 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>19:04 - 2nd Half</t>
+          <t>7:57 - 2nd Half</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
@@ -1068,7 +1068,7 @@
         <v>2</v>
       </c>
       <c r="O10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>13:40 - 2nd Half</t>
+          <t>1:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>13:40 - 2nd Half</t>
+          <t>1:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1434,7 +1434,7 @@
         <v>2</v>
       </c>
       <c r="O16" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>19:04 - 2nd Half</t>
+          <t>7:57 - 2nd Half</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>13:40 - 2nd Half</t>
+          <t>1:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1592,7 +1592,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>15:08 - 2nd Half</t>
+          <t>3:32 - 2nd Half</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -2065,47 +2065,47 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Dedan Thomas Jr.</t>
+          <t>Keyshawn Hall</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>MSST@LSU</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>15:08 - 2nd Half</t>
+          <t>7:57 - 2nd Half</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I27" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O27" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
@@ -2126,47 +2126,47 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Keyshawn Hall</t>
+          <t>Dedan Thomas Jr.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>TEX@AUB</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>19:04 - 2nd Half</t>
+          <t>3:32 - 2nd Half</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I28" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
@@ -2202,14 +2202,14 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>15:08 - 2nd Half</t>
+          <t>3:32 - 2nd Half</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I29" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J29" t="n">
         <v>8</v>
@@ -2227,7 +2227,7 @@
         <v>2</v>
       </c>
       <c r="O29" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>15:08 - 2nd Half</t>
+          <t>3:32 - 2nd Half</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>13:40 - 2nd Half</t>
+          <t>1:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -2995,17 +2995,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>13:40 - 2nd Half</t>
+          <t>1:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I42" t="n">
         <v>6</v>
       </c>
       <c r="J42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>15:08 - 2nd Half</t>
+          <t>3:32 - 2nd Half</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -3081,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -3117,17 +3117,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>19:04 - 2nd Half</t>
+          <t>7:57 - 2nd Half</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I44" t="n">
         <v>19</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
         <v>1</v>
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45">
@@ -3178,7 +3178,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>13:40 - 2nd Half</t>
+          <t>1:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -3203,7 +3203,7 @@
         <v>1</v>
       </c>
       <c r="O45" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46">
@@ -3239,7 +3239,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>19:04 - 2nd Half</t>
+          <t>7:57 - 2nd Half</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -3264,7 +3264,7 @@
         <v>2</v>
       </c>
       <c r="O46" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47">
@@ -3483,14 +3483,14 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>19:04 - 2nd Half</t>
+          <t>7:57 - 2nd Half</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I50" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J50" t="n">
         <v>6</v>
@@ -3508,7 +3508,7 @@
         <v>2</v>
       </c>
       <c r="O50" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51">
@@ -3544,14 +3544,14 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>13:40 - 2nd Half</t>
+          <t>1:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H51" t="n">
+        <v>10</v>
+      </c>
+      <c r="I51" t="n">
         <v>8</v>
-      </c>
-      <c r="I51" t="n">
-        <v>6</v>
       </c>
       <c r="J51" t="n">
         <v>1</v>
@@ -3605,7 +3605,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>13:40 - 2nd Half</t>
+          <t>1:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -3666,17 +3666,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>15:08 - 2nd Half</t>
+          <t>3:32 - 2nd Half</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I53" t="n">
         <v>15</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K53" t="n">
         <v>3</v>
@@ -3691,7 +3691,7 @@
         <v>2</v>
       </c>
       <c r="O53" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54">
@@ -4032,7 +4032,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>19:04 - 2nd Half</t>
+          <t>7:57 - 2nd Half</t>
         </is>
       </c>
       <c r="H59" t="n">
@@ -4093,11 +4093,11 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>15:08 - 2nd Half</t>
+          <t>3:32 - 2nd Half</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I60" t="n">
         <v>15</v>
@@ -4118,7 +4118,7 @@
         <v>1</v>
       </c>
       <c r="O60" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61">
@@ -4154,7 +4154,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>15:08 - 2nd Half</t>
+          <t>3:32 - 2nd Half</t>
         </is>
       </c>
       <c r="H61" t="n">
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>19:04 - 2nd Half</t>
+          <t>7:57 - 2nd Half</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -4240,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63">
@@ -5923,7 +5923,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>13:40 - 2nd Half</t>
+          <t>1:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H90" t="n">
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91">
@@ -5984,7 +5984,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>15:08 - 2nd Half</t>
+          <t>3:32 - 2nd Half</t>
         </is>
       </c>
       <c r="H91" t="n">
@@ -6009,7 +6009,7 @@
         <v>2</v>
       </c>
       <c r="O91" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92">
@@ -6045,7 +6045,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>13:40 - 2nd Half</t>
+          <t>1:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H92" t="n">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>19:04 - 2nd Half</t>
+          <t>7:57 - 2nd Half</t>
         </is>
       </c>
       <c r="H93" t="n">
@@ -6131,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="O93" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94">
@@ -6167,17 +6167,17 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>13:40 - 2nd Half</t>
+          <t>1:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I94" t="n">
         <v>10</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94" t="n">
         <v>1</v>
@@ -6228,17 +6228,17 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>15:08 - 2nd Half</t>
+          <t>3:32 - 2nd Half</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I95" t="n">
         <v>11</v>
       </c>
       <c r="J95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K95" t="n">
         <v>4</v>
@@ -6247,13 +6247,13 @@
         <v>0</v>
       </c>
       <c r="M95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N95" t="n">
         <v>2</v>
       </c>
       <c r="O95" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96">
@@ -6289,7 +6289,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>15:08 - 2nd Half</t>
+          <t>3:32 - 2nd Half</t>
         </is>
       </c>
       <c r="H96" t="n">
@@ -6350,7 +6350,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>15:08 - 2nd Half</t>
+          <t>3:32 - 2nd Half</t>
         </is>
       </c>
       <c r="H97" t="n">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>13:40 - 2nd Half</t>
+          <t>1:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H98" t="n">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>13:40 - 2nd Half</t>
+          <t>1:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H99" t="n">
@@ -6518,47 +6518,47 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Rashad King</t>
+          <t>Sebastian Williams-Adams</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>MSST@LSU</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>15:08 - 2nd Half</t>
+          <t>7:57 - 2nd Half</t>
         </is>
       </c>
       <c r="H100" t="n">
         <v>8</v>
       </c>
       <c r="I100" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J100" t="n">
         <v>1</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O100" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101">
@@ -6579,47 +6579,47 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Sebastian Williams-Adams</t>
+          <t>Rashad King</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>TEX@AUB</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>19:04 - 2nd Half</t>
+          <t>3:32 - 2nd Half</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I101" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J101" t="n">
         <v>1</v>
       </c>
       <c r="K101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O101" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102">
@@ -6655,7 +6655,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>13:40 - 2nd Half</t>
+          <t>1:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H102" t="n">
@@ -6716,7 +6716,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>19:04 - 2nd Half</t>
+          <t>7:57 - 2nd Half</t>
         </is>
       </c>
       <c r="H103" t="n">
@@ -6777,7 +6777,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>15:08 - 2nd Half</t>
+          <t>3:32 - 2nd Half</t>
         </is>
       </c>
       <c r="H104" t="n">
@@ -6802,7 +6802,7 @@
         <v>1</v>
       </c>
       <c r="O104" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105">
@@ -6838,7 +6838,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>15:08 - 2nd Half</t>
+          <t>3:32 - 2nd Half</t>
         </is>
       </c>
       <c r="H105" t="n">
@@ -6899,7 +6899,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>13:40 - 2nd Half</t>
+          <t>1:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H106" t="n">
@@ -6960,7 +6960,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>13:40 - 2nd Half</t>
+          <t>1:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H107" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>19:04 - 2nd Half</t>
+          <t>7:57 - 2nd Half</t>
         </is>
       </c>
       <c r="H108" t="n">
@@ -7082,7 +7082,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>13:40 - 2nd Half</t>
+          <t>1:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H109" t="n">
@@ -7143,7 +7143,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>19:04 - 2nd Half</t>
+          <t>7:57 - 2nd Half</t>
         </is>
       </c>
       <c r="H110" t="n">
@@ -7204,7 +7204,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>13:40 - 2nd Half</t>
+          <t>1:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H111" t="n">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>15:08 - 2nd Half</t>
+          <t>3:32 - 2nd Half</t>
         </is>
       </c>
       <c r="H112" t="n">
@@ -7290,7 +7290,7 @@
         <v>0</v>
       </c>
       <c r="O112" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113">
@@ -7326,7 +7326,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>19:04 - 2nd Half</t>
+          <t>7:57 - 2nd Half</t>
         </is>
       </c>
       <c r="H113" t="n">
@@ -7387,7 +7387,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>13:40 - 2nd Half</t>
+          <t>1:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H114" t="n">
@@ -7448,7 +7448,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>19:04 - 2nd Half</t>
+          <t>7:57 - 2nd Half</t>
         </is>
       </c>
       <c r="H115" t="n">
@@ -7509,7 +7509,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>15:08 - 2nd Half</t>
+          <t>3:32 - 2nd Half</t>
         </is>
       </c>
       <c r="H116" t="n">
@@ -7585,7 +7585,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -7598,7 +7598,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
@@ -7607,14 +7607,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>46</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -7633,14 +7633,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-28.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-28.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O116"/>
+  <dimension ref="A1:O81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -525,7 +525,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -540,38 +540,38 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Labaron Philon Jr.</t>
+          <t>Nate Ament</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -580,13 +580,13 @@
         <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -596,22 +596,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Devin McGlockton</t>
+          <t>Matas Vokietaitis</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -620,16 +620,16 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -638,16 +638,16 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -657,22 +657,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Derrion Reid</t>
+          <t>Tramon Mark</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -681,19 +681,19 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="I4" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -723,17 +723,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Billy Richmond III</t>
+          <t>Pablo Tamba</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -742,34 +742,34 @@
         </is>
       </c>
       <c r="H5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="n">
         <v>10</v>
       </c>
-      <c r="I5" t="n">
-        <v>9</v>
-      </c>
       <c r="J5" t="n">
+        <v>5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="n">
         <v>3</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2</v>
-      </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -784,35 +784,35 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Jacob Crews</t>
+          <t>Jeremiah Wilkinson</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -835,7 +835,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -845,47 +845,47 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Pablo Tamba</t>
+          <t>Thomas Haugh</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MSST@LSU</t>
+          <t>FLA@SC</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3:32 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I7" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
         <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -896,7 +896,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Nate Ament</t>
+          <t>Ja'Kobi Gillespie</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -921,21 +921,21 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1:40 - 2nd Half</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I8" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
         <v>6</v>
       </c>
-      <c r="K8" t="n">
-        <v>3</v>
-      </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
@@ -946,7 +946,7 @@
         <v>2</v>
       </c>
       <c r="O8" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
@@ -957,7 +957,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -967,12 +967,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Matas Vokietaitis</t>
+          <t>KeShawn Murphy</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -982,32 +982,32 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>7:57 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I9" t="n">
         <v>6</v>
       </c>
-      <c r="I9" t="n">
-        <v>8</v>
-      </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1028,47 +1028,47 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Tramon Mark</t>
+          <t>Meechie Johnson</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>TEX@AUB</t>
+          <t>FLA@SC</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>7:57 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1089,12 +1089,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Jeremiah Wilkinson</t>
+          <t>Felix Okpara</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1104,20 +1104,20 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1:40 - 2nd Half</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I11" t="n">
         <v>6</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1126,16 +1126,16 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1145,22 +1145,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Trevon Brazile</t>
+          <t>Micah Handlogten</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>FLA@SC</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1169,16 +1169,16 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1211,17 +1211,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Nijel Pack</t>
+          <t>Jayden Epps</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1230,59 +1230,59 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I13" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O13" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Meleek Thomas</t>
+          <t>Keyshawn Hall</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1291,16 +1291,16 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1309,41 +1309,41 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Denzel Aberdeen</t>
+          <t>Dedan Thomas Jr.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1352,28 +1352,28 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
@@ -1384,45 +1384,45 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Ja'Kobi Gillespie</t>
+          <t>Quincy Ballard</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>TENN@UGA</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1:40 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I16" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>2</v>
       </c>
       <c r="O16" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1455,47 +1455,47 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>KeShawn Murphy</t>
+          <t>Alex Condon</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>TEX@AUB</t>
+          <t>FLA@SC</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>7:57 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
@@ -1506,57 +1506,57 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Felix Okpara</t>
+          <t>Boogie Fland</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>TENN@UGA</t>
+          <t>FLA@SC</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1:40 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J18" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
@@ -1567,22 +1567,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Jayden Epps</t>
+          <t>Marquel Sutton</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1592,63 +1592,63 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3:32 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Tyler Nickel</t>
+          <t>Myles Stute</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>FLA@SC</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1657,120 +1657,120 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Aden Holloway</t>
+          <t>Jaylen Carey</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>9</v>
+        <v>-2</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O21" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mark Mitchell</t>
+          <t>Kevin Overton</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1779,16 +1779,16 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="I22" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="J22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
         <v>1</v>
@@ -1797,21 +1797,21 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1821,38 +1821,38 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Taylor Bol Bowen</t>
+          <t>J.P. Estrella</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -1861,18 +1861,18 @@
         <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1882,17 +1882,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Kirill Elatontsev</t>
+          <t>Xaivian Lee</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>FLA@SC</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1901,39 +1901,39 @@
         </is>
       </c>
       <c r="H24" t="n">
+        <v>14</v>
+      </c>
+      <c r="I24" t="n">
         <v>6</v>
       </c>
-      <c r="I24" t="n">
-        <v>2</v>
-      </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O24" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1943,58 +1943,58 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Collin Chandler</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H25" t="n">
+        <v>9</v>
+      </c>
+      <c r="I25" t="n">
+        <v>6</v>
+      </c>
+      <c r="J25" t="n">
         <v>3</v>
       </c>
-      <c r="I25" t="n">
-        <v>4</v>
-      </c>
-      <c r="J25" t="n">
-        <v>4</v>
-      </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2004,17 +2004,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Jalil Bethea</t>
+          <t>Jordan Pope</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2023,16 +2023,16 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -2041,10 +2041,10 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O26" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27">
@@ -2055,57 +2055,57 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Keyshawn Hall</t>
+          <t>Mike Nwoko</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>TEX@AUB</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>7:57 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2126,47 +2126,47 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Dedan Thomas Jr.</t>
+          <t>Dailyn Swain</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>MSST@LSU</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>3:32 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="I28" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="J28" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K28" t="n">
         <v>4</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O28" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29">
@@ -2177,42 +2177,42 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Quincy Ballard</t>
+          <t>Rueben Chinyelu</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>MSST@LSU</t>
+          <t>FLA@SC</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>3:32 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J29" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K29" t="n">
         <v>1</v>
@@ -2221,10 +2221,10 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O29" t="n">
         <v>22</v>
@@ -2233,12 +2233,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2248,38 +2248,38 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Otega Oweh</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I30" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="J30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K30" t="n">
         <v>3</v>
       </c>
       <c r="L30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -2288,18 +2288,18 @@
         <v>2</v>
       </c>
       <c r="O30" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2309,17 +2309,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Jayden Stone</t>
+          <t>Josh Hubbard</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2328,39 +2328,39 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I31" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J31" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O31" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2370,38 +2370,38 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Nick Pringle</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I32" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J32" t="n">
         <v>2</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -2410,18 +2410,18 @@
         <v>1</v>
       </c>
       <c r="O32" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2431,17 +2431,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Houston Mallette</t>
+          <t>Kobe Knox</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>FLA@SC</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2450,59 +2450,59 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J33" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O33" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Jadon Jones</t>
+          <t>Mike Sharavjamts</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>FLA@SC</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2511,39 +2511,39 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O34" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2553,17 +2553,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Anthony Robinson II</t>
+          <t>Elyjah Freeman</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2572,28 +2572,28 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O35" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
@@ -2604,17 +2604,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Marquel Sutton</t>
+          <t>Max Mackinnon</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2629,32 +2629,32 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>3:32 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I36" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Jaylen Carey</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>TENN@UGA</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1:40 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J37" t="n">
         <v>3</v>
@@ -2706,47 +2706,47 @@
         <v>1</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Darius Acuff Jr.</t>
+          <t>Tahaad Pettiford</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2755,16 +2755,16 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="I38" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="J38" t="n">
         <v>3</v>
       </c>
       <c r="K38" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -2782,73 +2782,73 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Undrafted</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Malachi Moreno</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I39" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="J39" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Undrafted</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2858,38 +2858,38 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Xzayvier Brown</t>
+          <t>Bishop Boswell</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I40" t="n">
         <v>13</v>
       </c>
       <c r="J40" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K40" t="n">
         <v>3</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -2898,18 +2898,18 @@
         <v>1</v>
       </c>
       <c r="O40" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Undrafted</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2919,17 +2919,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Jeff Nwankwo</t>
+          <t>Camden Heide</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2938,13 +2938,13 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -2953,13 +2953,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42">
@@ -2970,57 +2970,57 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Undrafted</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Somtochukwu Cyril</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>TENN@UGA</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>1:40 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I42" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J42" t="n">
+        <v>10</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
         <v>3</v>
       </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2</v>
-      </c>
-      <c r="M42" t="n">
-        <v>3</v>
-      </c>
-      <c r="N42" t="n">
-        <v>1</v>
-      </c>
       <c r="O42" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43">
@@ -3031,48 +3031,48 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Undrafted</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Mike Nwoko</t>
+          <t>Jordan Ross</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>MSST@LSU</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>3:32 - 2nd Half</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I43" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44">
@@ -3092,7 +3092,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Undrafted</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3102,47 +3102,47 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Kevin Overton</t>
+          <t>Urban Klavzar</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>TEX@AUB</t>
+          <t>FLA@SC</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>7:57 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I44" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J44" t="n">
         <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
@@ -3153,7 +3153,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Undrafted</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3163,47 +3163,47 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>J.P. Estrella</t>
+          <t>Ja'Borri McGhee</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>TENN@UGA</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1:40 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I45" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J45" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O45" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46">
@@ -3214,7 +3214,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Undrafted</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3224,78 +3224,78 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Jordan Pope</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>TEX@AUB</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>7:57 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H46" t="n">
+        <v>10</v>
+      </c>
+      <c r="I46" t="n">
         <v>8</v>
       </c>
-      <c r="I46" t="n">
-        <v>10</v>
-      </c>
       <c r="J46" t="n">
         <v>2</v>
       </c>
       <c r="K46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O46" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Undrafted</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Mouhamed Dioubate</t>
+          <t>Rashad King</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -3304,39 +3304,39 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J47" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
         <v>2</v>
       </c>
       <c r="O47" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Undrafted</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3346,17 +3346,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Latrell Wrightsell</t>
+          <t>Chendall Weaver</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3365,19 +3365,19 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="I48" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="J48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
@@ -3386,18 +3386,18 @@
         <v>1</v>
       </c>
       <c r="O48" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Undrafted</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3407,17 +3407,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Mohamed Wague</t>
+          <t>Eli Ellis</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>FLA@SC</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3426,28 +3426,28 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I49" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J49" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K49" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O49" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50">
@@ -3458,22 +3458,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Undrafted</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Dailyn Swain</t>
+          <t>Sebastian Williams-Adams</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3483,32 +3483,32 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>7:57 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="I50" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="J50" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51">
@@ -3519,57 +3519,57 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Undrafted</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Marcus Millender</t>
+          <t>Achor Achor</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>TENN@UGA</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1:40 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I51" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Undrafted</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3590,12 +3590,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Blue Cain</t>
+          <t>DeWayne Brown II</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3605,32 +3605,32 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1:40 - 2nd Half</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I52" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Undrafted</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3651,35 +3651,35 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Josh Hubbard</t>
+          <t>Justin Bailey</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>MSST@LSU</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>3:32 - 2nd Half</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I53" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -3688,41 +3688,41 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Undrafted</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Tyler Tanner</t>
+          <t>CJ Ingram</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>FLA@SC</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3731,59 +3731,59 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="I54" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K54" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>37</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Undrafted</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Aiden Sherrell</t>
+          <t>Isaiah Brown</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>FLA@SC</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3792,10 +3792,10 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I55" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J55" t="n">
         <v>1</v>
@@ -3804,47 +3804,47 @@
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Undrafted</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Tae Davis</t>
+          <t>Alex Lloyd</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>FLA@SC</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3853,16 +3853,16 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I56" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -3871,62 +3871,62 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Undrafted</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Jalen Washington</t>
+          <t>Amari Evans</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J57" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
@@ -3935,18 +3935,18 @@
         <v>1</v>
       </c>
       <c r="O57" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Undrafted</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3956,17 +3956,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Karter Knox</t>
+          <t>Robert Miller III</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3975,28 +3975,28 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I58" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
       <c r="N58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59">
@@ -4007,7 +4007,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Undrafted</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -4017,38 +4017,38 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Elyjah Freeman</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>TEX@AUB</t>
+          <t>FLA@SC</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>7:57 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I59" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
@@ -4057,7 +4057,7 @@
         <v>1</v>
       </c>
       <c r="O59" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60">
@@ -4068,7 +4068,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Undrafted</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -4078,12 +4078,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Max Mackinnon</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4093,32 +4093,32 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>3:32 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I60" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61">
@@ -4129,7 +4129,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Undrafted</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4139,47 +4139,47 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Shawn Jones Jr.</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>MSST@LSU</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>3:32 - 2nd Half</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I61" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
         <v>1</v>
       </c>
       <c r="L61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62">
@@ -4190,7 +4190,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Undrafted</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4200,35 +4200,35 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Tahaad Pettiford</t>
+          <t>Kareem Stagg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>TEX@AUB</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>7:57 - 2nd Half</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I62" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J62" t="n">
         <v>3</v>
       </c>
       <c r="K62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -4240,13 +4240,13 @@
         <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4261,17 +4261,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Charles Bediako</t>
+          <t>Lassina Traore</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -4280,19 +4280,19 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I63" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J63" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
@@ -4301,13 +4301,13 @@
         <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4322,35 +4322,35 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Malique Ewin</t>
+          <t>Dylan James</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -4359,16 +4359,16 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4383,17 +4383,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Filip Jović</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -4402,34 +4402,34 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I65" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4444,32 +4444,32 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Jake Wilkins</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I66" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J66" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
@@ -4481,16 +4481,16 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4505,17 +4505,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Jalen Reece</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -4524,34 +4524,34 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
         <v>2</v>
       </c>
       <c r="K67" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4566,17 +4566,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Blake Muschalek</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -4585,34 +4585,34 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4627,17 +4627,17 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Jayden Leverett</t>
+          <t>Hayden Assemian</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>FLA@SC</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -4646,13 +4646,13 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
@@ -4661,19 +4661,19 @@
         <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -4688,17 +4688,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Alex Kovatchev</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>FLA@SC</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -4707,16 +4707,16 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -4728,13 +4728,13 @@
         <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4749,53 +4749,53 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>London Jemison</t>
+          <t>Amaree Abram</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
         <v>3</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0</v>
-      </c>
-      <c r="N71" t="n">
-        <v>1</v>
-      </c>
-      <c r="O71" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4810,17 +4810,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Trent Burns</t>
+          <t>Christ Essandoko</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>FLA@SC</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -4829,13 +4829,13 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
         <v>0</v>
@@ -4850,13 +4850,13 @@
         <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4871,17 +4871,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Eli Sparkman</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>FLA@SC</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -4890,34 +4890,34 @@
         </is>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
         <v>4</v>
-      </c>
-      <c r="I73" t="n">
-        <v>4</v>
-      </c>
-      <c r="J73" t="n">
-        <v>5</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0</v>
-      </c>
-      <c r="L73" t="n">
-        <v>0</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0</v>
-      </c>
-      <c r="N73" t="n">
-        <v>1</v>
-      </c>
-      <c r="O73" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4932,17 +4932,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Preston Murphy Jr.</t>
+          <t>Nordin Kapic</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>FLA@SC</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -4951,16 +4951,16 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4993,17 +4993,17 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Olivier Rioux</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>FLA@SC</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -5012,13 +5012,13 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
@@ -5030,16 +5030,16 @@
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O75" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5054,17 +5054,17 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Sebastian Mack</t>
+          <t>Simeon Wilcher</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -5073,16 +5073,16 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -5094,13 +5094,13 @@
         <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5115,17 +5115,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Jacob Martin</t>
+          <t>Jordan Butler</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>FLA@SC</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -5134,7 +5134,7 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -5149,19 +5149,19 @@
         <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
       </c>
       <c r="O77" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5176,17 +5176,17 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Luke Northweather</t>
+          <t>Viktor Mikic</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>FLA@SC</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5195,13 +5195,13 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" t="n">
         <v>0</v>
@@ -5216,13 +5216,13 @@
         <v>0</v>
       </c>
       <c r="O78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -5237,17 +5237,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Elijah Strong</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>FLA@SC</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -5256,13 +5256,13 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="I79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K79" t="n">
         <v>0</v>
@@ -5274,16 +5274,16 @@
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O79" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -5298,17 +5298,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Tyler Harris</t>
+          <t>Grant Polk</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>FLA@SC</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -5317,34 +5317,34 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
       </c>
       <c r="O80" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5359,17 +5359,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Andrija Jelavic</t>
+          <t>Mazi Mosley</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -5378,13 +5378,13 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
@@ -5393,2148 +5393,13 @@
         <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O81" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>2026-01-27</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Undrafted</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Coleson Messer</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>VAN</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>UK@VAN</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>Final</t>
-        </is>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0</v>
-      </c>
-      <c r="L82" t="n">
-        <v>0</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0</v>
-      </c>
-      <c r="N82" t="n">
-        <v>0</v>
-      </c>
-      <c r="O82" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>2026-01-27</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Undrafted</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>D.J. Wagner</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>ARK</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>ARK@OU</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>Final</t>
-        </is>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>3</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0</v>
-      </c>
-      <c r="L83" t="n">
-        <v>0</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0</v>
-      </c>
-      <c r="N83" t="n">
-        <v>1</v>
-      </c>
-      <c r="O83" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>2026-01-27</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Undrafted</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Jaylon Dean-Vines</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>VAN</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>UK@VAN</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>Final</t>
-        </is>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0</v>
-      </c>
-      <c r="L84" t="n">
-        <v>0</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0</v>
-      </c>
-      <c r="N84" t="n">
-        <v>0</v>
-      </c>
-      <c r="O84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>2026-01-27</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Undrafted</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Miles Keeffe</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>VAN</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>UK@VAN</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>Final</t>
-        </is>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0</v>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0</v>
-      </c>
-      <c r="N85" t="n">
-        <v>0</v>
-      </c>
-      <c r="O85" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>2026-01-27</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Undrafted</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Nicholas Randall</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>MIZ</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>MIZ@ALA</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>Final</t>
-        </is>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0</v>
-      </c>
-      <c r="L86" t="n">
-        <v>0</v>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="n">
-        <v>0</v>
-      </c>
-      <c r="O86" t="n">
         <v>8</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>2026-01-27</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Undrafted</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Noah Williamson</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>ALA</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>MIZ@ALA</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Final</t>
-        </is>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0</v>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0</v>
-      </c>
-      <c r="N87" t="n">
-        <v>0</v>
-      </c>
-      <c r="O87" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>2026-01-27</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Undrafted</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Jasper Johnson</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>UK@VAN</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>Final</t>
-        </is>
-      </c>
-      <c r="H88" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>5</v>
-      </c>
-      <c r="J88" t="n">
-        <v>2</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0</v>
-      </c>
-      <c r="L88" t="n">
-        <v>0</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0</v>
-      </c>
-      <c r="N88" t="n">
-        <v>4</v>
-      </c>
-      <c r="O88" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>2026-01-27</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Undrafted</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Annor Boateng</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>MIZ</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>MIZ@ALA</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Final</t>
-        </is>
-      </c>
-      <c r="H89" t="n">
-        <v>-4</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0</v>
-      </c>
-      <c r="L89" t="n">
-        <v>0</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0</v>
-      </c>
-      <c r="N89" t="n">
-        <v>1</v>
-      </c>
-      <c r="O89" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Undrafted</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Kanon Catchings</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>UGA</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>TENN@UGA</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>1:40 - 2nd Half</t>
-        </is>
-      </c>
-      <c r="H90" t="n">
-        <v>22</v>
-      </c>
-      <c r="I90" t="n">
-        <v>20</v>
-      </c>
-      <c r="J90" t="n">
-        <v>6</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0</v>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0</v>
-      </c>
-      <c r="N90" t="n">
-        <v>0</v>
-      </c>
-      <c r="O90" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Undrafted</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Sergej Macura</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>MSST</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>MSST@LSU</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>3:32 - 2nd Half</t>
-        </is>
-      </c>
-      <c r="H91" t="n">
-        <v>17</v>
-      </c>
-      <c r="I91" t="n">
-        <v>10</v>
-      </c>
-      <c r="J91" t="n">
-        <v>10</v>
-      </c>
-      <c r="K91" t="n">
-        <v>1</v>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0</v>
-      </c>
-      <c r="N91" t="n">
-        <v>2</v>
-      </c>
-      <c r="O91" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Undrafted</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Bishop Boswell</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>TENN</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>TENN@UGA</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>1:40 - 2nd Half</t>
-        </is>
-      </c>
-      <c r="H92" t="n">
-        <v>15</v>
-      </c>
-      <c r="I92" t="n">
-        <v>10</v>
-      </c>
-      <c r="J92" t="n">
-        <v>7</v>
-      </c>
-      <c r="K92" t="n">
-        <v>2</v>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="n">
-        <v>0</v>
-      </c>
-      <c r="N92" t="n">
-        <v>1</v>
-      </c>
-      <c r="O92" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Undrafted</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Camden Heide</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>TEX</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>TEX@AUB</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>7:57 - 2nd Half</t>
-        </is>
-      </c>
-      <c r="H93" t="n">
-        <v>13</v>
-      </c>
-      <c r="I93" t="n">
-        <v>11</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0</v>
-      </c>
-      <c r="L93" t="n">
-        <v>0</v>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="n">
-        <v>0</v>
-      </c>
-      <c r="O93" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Undrafted</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Jordan Ross</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>UGA</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>TENN@UGA</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>1:40 - 2nd Half</t>
-        </is>
-      </c>
-      <c r="H94" t="n">
-        <v>12</v>
-      </c>
-      <c r="I94" t="n">
-        <v>10</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1</v>
-      </c>
-      <c r="K94" t="n">
-        <v>1</v>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0</v>
-      </c>
-      <c r="O94" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Undrafted</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Ja'Borri McGhee</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>MSST</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>MSST@LSU</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>3:32 - 2nd Half</t>
-        </is>
-      </c>
-      <c r="H95" t="n">
-        <v>11</v>
-      </c>
-      <c r="I95" t="n">
-        <v>11</v>
-      </c>
-      <c r="J95" t="n">
-        <v>3</v>
-      </c>
-      <c r="K95" t="n">
-        <v>4</v>
-      </c>
-      <c r="L95" t="n">
-        <v>0</v>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="n">
-        <v>2</v>
-      </c>
-      <c r="O95" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Undrafted</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>King Grace</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>MSST</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>MSST@LSU</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>3:32 - 2nd Half</t>
-        </is>
-      </c>
-      <c r="H96" t="n">
-        <v>10</v>
-      </c>
-      <c r="I96" t="n">
-        <v>8</v>
-      </c>
-      <c r="J96" t="n">
-        <v>2</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0</v>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="n">
-        <v>1</v>
-      </c>
-      <c r="O96" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Undrafted</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Achor Achor</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>MSST</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>MSST@LSU</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>3:32 - 2nd Half</t>
-        </is>
-      </c>
-      <c r="H97" t="n">
-        <v>8</v>
-      </c>
-      <c r="I97" t="n">
-        <v>6</v>
-      </c>
-      <c r="J97" t="n">
-        <v>4</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0</v>
-      </c>
-      <c r="L97" t="n">
-        <v>0</v>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="n">
-        <v>0</v>
-      </c>
-      <c r="O97" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Undrafted</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>DeWayne Brown II</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>TENN</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>TENN@UGA</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>1:40 - 2nd Half</t>
-        </is>
-      </c>
-      <c r="H98" t="n">
-        <v>8</v>
-      </c>
-      <c r="I98" t="n">
-        <v>4</v>
-      </c>
-      <c r="J98" t="n">
-        <v>3</v>
-      </c>
-      <c r="K98" t="n">
-        <v>2</v>
-      </c>
-      <c r="L98" t="n">
-        <v>0</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0</v>
-      </c>
-      <c r="N98" t="n">
-        <v>0</v>
-      </c>
-      <c r="O98" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Undrafted</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Justin Bailey</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>UGA</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>TENN@UGA</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>1:40 - 2nd Half</t>
-        </is>
-      </c>
-      <c r="H99" t="n">
-        <v>8</v>
-      </c>
-      <c r="I99" t="n">
-        <v>8</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0</v>
-      </c>
-      <c r="L99" t="n">
-        <v>0</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0</v>
-      </c>
-      <c r="N99" t="n">
-        <v>0</v>
-      </c>
-      <c r="O99" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Undrafted</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Sebastian Williams-Adams</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>AUB</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>TEX@AUB</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>7:57 - 2nd Half</t>
-        </is>
-      </c>
-      <c r="H100" t="n">
-        <v>8</v>
-      </c>
-      <c r="I100" t="n">
-        <v>7</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1</v>
-      </c>
-      <c r="K100" t="n">
-        <v>1</v>
-      </c>
-      <c r="L100" t="n">
-        <v>2</v>
-      </c>
-      <c r="M100" t="n">
-        <v>2</v>
-      </c>
-      <c r="N100" t="n">
-        <v>0</v>
-      </c>
-      <c r="O100" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Undrafted</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Rashad King</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>LSU</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>MSST@LSU</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>3:32 - 2nd Half</t>
-        </is>
-      </c>
-      <c r="H101" t="n">
-        <v>7</v>
-      </c>
-      <c r="I101" t="n">
-        <v>11</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0</v>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0</v>
-      </c>
-      <c r="N101" t="n">
-        <v>2</v>
-      </c>
-      <c r="O101" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Undrafted</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Amari Evans</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>TENN</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>TENN@UGA</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>1:40 - 2nd Half</t>
-        </is>
-      </c>
-      <c r="H102" t="n">
-        <v>5</v>
-      </c>
-      <c r="I102" t="n">
-        <v>5</v>
-      </c>
-      <c r="J102" t="n">
-        <v>2</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0</v>
-      </c>
-      <c r="L102" t="n">
-        <v>2</v>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="n">
-        <v>1</v>
-      </c>
-      <c r="O102" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Undrafted</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Chendall Weaver</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>TEX</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>TEX@AUB</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>7:57 - 2nd Half</t>
-        </is>
-      </c>
-      <c r="H103" t="n">
-        <v>5</v>
-      </c>
-      <c r="I103" t="n">
-        <v>3</v>
-      </c>
-      <c r="J103" t="n">
-        <v>2</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0</v>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="n">
-        <v>0</v>
-      </c>
-      <c r="N103" t="n">
-        <v>1</v>
-      </c>
-      <c r="O103" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Undrafted</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Robert Miller III</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>LSU</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>MSST@LSU</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>3:32 - 2nd Half</t>
-        </is>
-      </c>
-      <c r="H104" t="n">
-        <v>5</v>
-      </c>
-      <c r="I104" t="n">
-        <v>4</v>
-      </c>
-      <c r="J104" t="n">
-        <v>3</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0</v>
-      </c>
-      <c r="L104" t="n">
-        <v>3</v>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="n">
-        <v>1</v>
-      </c>
-      <c r="O104" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Undrafted</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Jamarion Davis-Fleming</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>MSST</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>MSST@LSU</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>3:32 - 2nd Half</t>
-        </is>
-      </c>
-      <c r="H105" t="n">
-        <v>3</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>5</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0</v>
-      </c>
-      <c r="L105" t="n">
-        <v>0</v>
-      </c>
-      <c r="M105" t="n">
-        <v>0</v>
-      </c>
-      <c r="N105" t="n">
-        <v>0</v>
-      </c>
-      <c r="O105" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Undrafted</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Justin Abson</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>UGA</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>TENN@UGA</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>1:40 - 2nd Half</t>
-        </is>
-      </c>
-      <c r="H106" t="n">
-        <v>3</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="n">
-        <v>1</v>
-      </c>
-      <c r="L106" t="n">
-        <v>0</v>
-      </c>
-      <c r="M106" t="n">
-        <v>4</v>
-      </c>
-      <c r="N106" t="n">
-        <v>0</v>
-      </c>
-      <c r="O106" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Undrafted</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Kareem Stagg</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>UGA</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>TENN@UGA</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>1:40 - 2nd Half</t>
-        </is>
-      </c>
-      <c r="H107" t="n">
-        <v>3</v>
-      </c>
-      <c r="I107" t="n">
-        <v>2</v>
-      </c>
-      <c r="J107" t="n">
-        <v>3</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0</v>
-      </c>
-      <c r="L107" t="n">
-        <v>0</v>
-      </c>
-      <c r="M107" t="n">
-        <v>0</v>
-      </c>
-      <c r="N107" t="n">
-        <v>0</v>
-      </c>
-      <c r="O107" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Undrafted</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Lassina Traore</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>TEX</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>TEX@AUB</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>7:57 - 2nd Half</t>
-        </is>
-      </c>
-      <c r="H108" t="n">
-        <v>3</v>
-      </c>
-      <c r="I108" t="n">
-        <v>2</v>
-      </c>
-      <c r="J108" t="n">
-        <v>1</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0</v>
-      </c>
-      <c r="L108" t="n">
-        <v>0</v>
-      </c>
-      <c r="M108" t="n">
-        <v>0</v>
-      </c>
-      <c r="N108" t="n">
-        <v>0</v>
-      </c>
-      <c r="O108" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Undrafted</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Dylan James</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>UGA</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>TENN@UGA</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>1:40 - 2nd Half</t>
-        </is>
-      </c>
-      <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>2</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0</v>
-      </c>
-      <c r="L109" t="n">
-        <v>0</v>
-      </c>
-      <c r="M109" t="n">
-        <v>0</v>
-      </c>
-      <c r="N109" t="n">
-        <v>0</v>
-      </c>
-      <c r="O109" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Undrafted</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Filip Jović</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>AUB</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>TEX@AUB</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>7:57 - 2nd Half</t>
-        </is>
-      </c>
-      <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="n">
-        <v>2</v>
-      </c>
-      <c r="J110" t="n">
-        <v>2</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0</v>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="n">
-        <v>0</v>
-      </c>
-      <c r="N110" t="n">
-        <v>0</v>
-      </c>
-      <c r="O110" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Undrafted</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Jake Wilkins</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>UGA</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>TENN@UGA</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>1:40 - 2nd Half</t>
-        </is>
-      </c>
-      <c r="H111" t="n">
-        <v>2</v>
-      </c>
-      <c r="I111" t="n">
-        <v>3</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0</v>
-      </c>
-      <c r="L111" t="n">
-        <v>0</v>
-      </c>
-      <c r="M111" t="n">
-        <v>0</v>
-      </c>
-      <c r="N111" t="n">
-        <v>0</v>
-      </c>
-      <c r="O111" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Undrafted</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Jalen Reece</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>LSU</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>MSST@LSU</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>3:32 - 2nd Half</t>
-        </is>
-      </c>
-      <c r="H112" t="n">
-        <v>2</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>2</v>
-      </c>
-      <c r="K112" t="n">
-        <v>1</v>
-      </c>
-      <c r="L112" t="n">
-        <v>2</v>
-      </c>
-      <c r="M112" t="n">
-        <v>0</v>
-      </c>
-      <c r="N112" t="n">
-        <v>0</v>
-      </c>
-      <c r="O112" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Undrafted</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Blake Muschalek</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>AUB</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>TEX@AUB</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>7:57 - 2nd Half</t>
-        </is>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0</v>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="n">
-        <v>0</v>
-      </c>
-      <c r="N113" t="n">
-        <v>0</v>
-      </c>
-      <c r="O113" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Undrafted</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Amaree Abram</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>TENN</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>TENN@UGA</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>1:40 - 2nd Half</t>
-        </is>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0</v>
-      </c>
-      <c r="L114" t="n">
-        <v>0</v>
-      </c>
-      <c r="M114" t="n">
-        <v>0</v>
-      </c>
-      <c r="N114" t="n">
-        <v>0</v>
-      </c>
-      <c r="O114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Undrafted</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Simeon Wilcher</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>TEX</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>TEX@AUB</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>7:57 - 2nd Half</t>
-        </is>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0</v>
-      </c>
-      <c r="L115" t="n">
-        <v>0</v>
-      </c>
-      <c r="M115" t="n">
-        <v>0</v>
-      </c>
-      <c r="N115" t="n">
-        <v>0</v>
-      </c>
-      <c r="O115" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Undrafted</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Mazi Mosley</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>LSU</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>MSST@LSU</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>3:32 - 2nd Half</t>
-        </is>
-      </c>
-      <c r="H116" t="n">
-        <v>-2</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0</v>
-      </c>
-      <c r="L116" t="n">
-        <v>0</v>
-      </c>
-      <c r="M116" t="n">
-        <v>0</v>
-      </c>
-      <c r="N116" t="n">
-        <v>2</v>
-      </c>
-      <c r="O116" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -7581,92 +5446,92 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-28.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-28.xlsx
@@ -596,22 +596,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Derrion Reid</t>
+          <t>Devin McGlockton</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -620,28 +620,28 @@
         </is>
       </c>
       <c r="H3" t="n">
+        <v>20</v>
+      </c>
+      <c r="I3" t="n">
+        <v>11</v>
+      </c>
+      <c r="J3" t="n">
         <v>12</v>
       </c>
-      <c r="I3" t="n">
-        <v>12</v>
-      </c>
-      <c r="J3" t="n">
-        <v>6</v>
-      </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -662,17 +662,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Devin McGlockton</t>
+          <t>Derrion Reid</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -681,28 +681,28 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J4" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -845,47 +845,47 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Nate Ament</t>
+          <t>Pablo Tamba</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>TENN@UGA</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
         <v>3</v>
       </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -906,47 +906,47 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Matas Vokietaitis</t>
+          <t>Nate Ament</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>TEX@AUB</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I8" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
@@ -967,7 +967,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Tramon Mark</t>
+          <t>Matas Vokietaitis</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -986,10 +986,10 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J9" t="n">
         <v>5</v>
@@ -998,16 +998,16 @@
         <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O9" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -1023,22 +1023,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Pablo Tamba</t>
+          <t>Tramon Mark</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MSST@LSU</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1047,28 +1047,28 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="I10" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
         <v>5</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O10" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
@@ -3163,17 +3163,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Xzayvier Brown</t>
+          <t>Malachi Moreno</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3182,28 +3182,28 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I45" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" t="n">
         <v>1</v>
       </c>
       <c r="O45" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46">
@@ -3219,22 +3219,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Malachi Moreno</t>
+          <t>Xzayvier Brown</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3243,28 +3243,28 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I46" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J46" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>1</v>
       </c>
       <c r="O46" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47">
@@ -3341,52 +3341,52 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Kevin Overton</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>TEX@AUB</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="I48" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49">
@@ -3402,52 +3402,52 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>J.P. Estrella</t>
+          <t>Mike Nwoko</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>TENN@UGA</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I49" t="n">
+        <v>4</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
         <v>17</v>
-      </c>
-      <c r="J49" t="n">
-        <v>9</v>
-      </c>
-      <c r="K49" t="n">
-        <v>1</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="n">
-        <v>1</v>
-      </c>
-      <c r="O49" t="n">
-        <v>31</v>
       </c>
     </row>
     <row r="50">
@@ -3468,17 +3468,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Xaivian Lee</t>
+          <t>Kevin Overton</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>FLA@SC</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3487,28 +3487,28 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I50" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="J50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Somtochukwu Cyril</t>
+          <t>J.P. Estrella</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3548,28 +3548,28 @@
         </is>
       </c>
       <c r="H51" t="n">
+        <v>20</v>
+      </c>
+      <c r="I51" t="n">
+        <v>17</v>
+      </c>
+      <c r="J51" t="n">
         <v>9</v>
       </c>
-      <c r="I51" t="n">
-        <v>6</v>
-      </c>
-      <c r="J51" t="n">
-        <v>3</v>
-      </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
         <v>1</v>
       </c>
       <c r="O51" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52">
@@ -3590,17 +3590,17 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Jordan Pope</t>
+          <t>Xaivian Lee</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>TEX@AUB</t>
+          <t>FLA@SC</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3609,19 +3609,19 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I52" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K52" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>2</v>
       </c>
       <c r="O52" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53">
@@ -3651,17 +3651,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Mike Nwoko</t>
+          <t>Jordan Pope</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>MSST@LSU</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3670,28 +3670,28 @@
         </is>
       </c>
       <c r="H53" t="n">
+        <v>8</v>
+      </c>
+      <c r="I53" t="n">
+        <v>12</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2</v>
+      </c>
+      <c r="K53" t="n">
         <v>3</v>
       </c>
-      <c r="I53" t="n">
-        <v>4</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
       <c r="L53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O53" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54">
@@ -4017,7 +4017,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Blue Cain</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -4036,28 +4036,28 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I59" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J59" t="n">
+        <v>2</v>
+      </c>
+      <c r="K59" t="n">
         <v>4</v>
       </c>
-      <c r="K59" t="n">
-        <v>3</v>
-      </c>
       <c r="L59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O59" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60">
@@ -4078,17 +4078,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Josh Hubbard</t>
+          <t>Kobe Knox</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>MSST@LSU</t>
+          <t>FLA@SC</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -4097,28 +4097,28 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I60" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60" t="n">
         <v>2</v>
       </c>
       <c r="O60" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61">
@@ -4139,7 +4139,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Marcus Millender</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -4158,28 +4158,28 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I61" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="J61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" t="n">
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O61" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62">
@@ -4200,17 +4200,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Kobe Knox</t>
+          <t>Josh Hubbard</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>FLA@SC</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -4219,28 +4219,28 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I62" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N62" t="n">
         <v>2</v>
       </c>
       <c r="O62" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63">
@@ -4439,22 +4439,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Karter Knox</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -4463,28 +4463,28 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I66" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
       <c r="N66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O66" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67">
@@ -4505,17 +4505,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Jalen Washington</t>
+          <t>Karter Knox</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -4524,28 +4524,28 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J67" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
       <c r="N67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -9206,11 +9206,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
@@ -9219,11 +9219,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -9232,24 +9232,24 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
